--- a/Receipt_For_ArunachalaImpexPvtLtd_Updated.xlsx
+++ b/Receipt_For_ArunachalaImpexPvtLtd_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e3024537\OneDrive - FIS\e3024537_Backup\D_Drive\Hema's\SVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fisglobal-my.sharepoint.com/personal/hemalatha_jayabalan_fisglobal_com/Documents/e3024537_Backup/D_Drive/Hema's/SVT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1AB926-A16F-45FF-9F5D-420AA9D915AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{EC1AB926-A16F-45FF-9F5D-420AA9D915AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EEF68B-ABB3-441E-B986-A15B1257F283}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,9 +731,6 @@
     <t>Office</t>
   </si>
   <si>
-    <t>Rupees Five Lakhs Sixty Three Thousand Nine Hundred Ninety Two Only</t>
-  </si>
-  <si>
     <t>Receipt for Local Usage</t>
   </si>
   <si>
@@ -786,6 +783,9 @@
   </si>
   <si>
     <t>TN02AT8689</t>
+  </si>
+  <si>
+    <t>Rupees Five Lakhs Thirty Five Thousand Nine Hundred Ninety Two Only</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1139,6 +1139,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1181,31 +1208,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1543,66 +1573,66 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
     </row>
     <row r="3" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="39"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="39"/>
+      <c r="B4" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -3680,20 +3710,20 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="43" t="s">
+      <c r="G47" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="45"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="54"/>
       <c r="M47" s="4"/>
       <c r="N47" s="19"/>
-      <c r="O47" s="33" t="s">
+      <c r="O47" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="33"/>
+      <c r="P47" s="42"/>
       <c r="Q47" s="31">
         <f>SUM(Q6:Q46)</f>
         <v>189777</v>
@@ -3747,7 +3777,7 @@
   <dimension ref="B1:T89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -3774,69 +3804,69 @@
   <sheetData>
     <row r="1" spans="2:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
     </row>
     <row r="3" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38" t="s">
-        <v>246</v>
-      </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="39"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="48"/>
     </row>
     <row r="4" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="39"/>
+      <c r="B4" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="48"/>
     </row>
     <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -4442,114 +4472,114 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="20">
+    <row r="16" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="33">
         <v>11</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="34">
         <v>45314</v>
       </c>
-      <c r="D16" s="25">
-        <v>45315</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="34">
+        <v>45314</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="H16" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="36">
         <v>160</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="27" t="s">
+      <c r="K16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="O16" s="27">
-        <f>600*35</f>
-        <v>21000</v>
-      </c>
-      <c r="P16" s="14">
+      <c r="O16" s="56">
+        <f>300*35</f>
+        <v>10500</v>
+      </c>
+      <c r="P16" s="39">
         <v>1600</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="36">
         <v>200</v>
       </c>
-      <c r="R16" s="23">
-        <f t="shared" si="0"/>
-        <v>22800</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20">
+      <c r="R16" s="40">
+        <f t="shared" si="0"/>
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33">
         <v>12</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="34">
         <v>45314</v>
       </c>
-      <c r="D17" s="25">
-        <v>45315</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="34">
+        <v>45314</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="H17" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="H17" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="36">
         <v>172</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="27" t="s">
+      <c r="K17" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="O17" s="27">
-        <f>600*35</f>
-        <v>21000</v>
-      </c>
-      <c r="P17" s="14">
+      <c r="O17" s="56">
+        <f>300*35</f>
+        <v>10500</v>
+      </c>
+      <c r="P17" s="39">
         <v>1600</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="36">
         <v>200</v>
       </c>
-      <c r="R17" s="23">
-        <f t="shared" si="0"/>
-        <v>22800</v>
+      <c r="R17" s="40">
+        <f t="shared" si="0"/>
+        <v>12300</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -4673,7 +4703,7 @@
         <v>45314</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>18</v>
@@ -5003,7 +5033,7 @@
         <v>45315</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>18</v>
@@ -5102,57 +5132,57 @@
         <v>10094</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="55" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="47">
+    <row r="28" spans="2:18" s="65" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="57">
         <v>23</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="58">
         <v>45314</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="58">
         <v>45315</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="49" t="s">
-        <v>247</v>
-      </c>
-      <c r="H28" s="50" t="s">
+      <c r="G28" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="H28" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="60">
         <v>167</v>
       </c>
-      <c r="J28" s="51" t="s">
+      <c r="J28" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="M28" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="N28" s="53" t="s">
+      <c r="L28" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="O28" s="53">
+      <c r="O28" s="63">
         <f>500*18</f>
         <v>9000</v>
       </c>
-      <c r="P28" s="53">
+      <c r="P28" s="63">
         <v>1000</v>
       </c>
-      <c r="Q28" s="50">
+      <c r="Q28" s="60">
         <v>167</v>
       </c>
-      <c r="R28" s="54">
+      <c r="R28" s="64">
         <f t="shared" si="0"/>
         <v>10167</v>
       </c>
@@ -5443,7 +5473,7 @@
         <v>45315</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>18</v>
@@ -5817,59 +5847,59 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="20">
+    <row r="41" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="33">
         <v>36</v>
       </c>
-      <c r="C41" s="25">
+      <c r="C41" s="34">
         <v>45314</v>
       </c>
-      <c r="D41" s="25">
-        <v>45315</v>
-      </c>
-      <c r="E41" s="24" t="s">
+      <c r="D41" s="34">
+        <v>45314</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="24" t="s">
+      <c r="F41" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I41" s="9">
+      <c r="H41" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="36">
         <v>157</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="J41" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N41" s="27" t="s">
+      <c r="K41" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="O41" s="27">
-        <f>500*28</f>
-        <v>14000</v>
-      </c>
-      <c r="P41" s="14">
+      <c r="O41" s="56">
+        <f>250*28</f>
+        <v>7000</v>
+      </c>
+      <c r="P41" s="39">
         <v>1600</v>
       </c>
-      <c r="Q41" s="9">
+      <c r="Q41" s="36">
         <v>94</v>
       </c>
-      <c r="R41" s="23">
-        <f t="shared" si="0"/>
-        <v>15694</v>
+      <c r="R41" s="40">
+        <f t="shared" si="0"/>
+        <v>8694</v>
       </c>
     </row>
     <row r="42" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -7843,23 +7873,23 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="45"/>
+      <c r="H79" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="I79" s="53"/>
+      <c r="J79" s="53"/>
+      <c r="K79" s="53"/>
+      <c r="L79" s="54"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="33" t="s">
+      <c r="P79" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Q79" s="33"/>
+      <c r="Q79" s="42"/>
       <c r="R79" s="31">
         <f>SUM(R6:R78)</f>
-        <v>563992</v>
+        <v>535992</v>
       </c>
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
@@ -7888,71 +7918,72 @@
       <c r="D81" s="13"/>
     </row>
     <row r="83" spans="3:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P83" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q83" s="46"/>
+      <c r="P83" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q83" s="55"/>
       <c r="R83" s="30">
         <v>189777</v>
       </c>
     </row>
     <row r="84" spans="3:18" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P84" s="46" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q84" s="46"/>
-      <c r="R84" s="30">
-        <v>563992</v>
+      <c r="P84" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q84" s="55"/>
+      <c r="R84" s="19">
+        <f>R79</f>
+        <v>535992</v>
       </c>
     </row>
     <row r="85" spans="3:18" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P85" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q85" s="46"/>
+      <c r="P85" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q85" s="55"/>
       <c r="R85" s="30">
         <f>R83+R84</f>
-        <v>753769</v>
+        <v>725769</v>
       </c>
     </row>
     <row r="86" spans="3:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P86" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q86" s="46"/>
+      <c r="P86" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q86" s="55"/>
       <c r="R86" s="30">
         <f>R85*5%</f>
-        <v>37688.450000000004</v>
+        <v>36288.450000000004</v>
       </c>
     </row>
     <row r="87" spans="3:18" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P87" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q87" s="46"/>
+      <c r="P87" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q87" s="55"/>
       <c r="R87" s="30">
         <f>R85+R86</f>
-        <v>791457.45</v>
+        <v>762057.45</v>
       </c>
     </row>
     <row r="88" spans="3:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L88" s="32"/>
-      <c r="P88" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q88" s="46"/>
+      <c r="P88" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q88" s="55"/>
       <c r="R88" s="30">
         <v>200000</v>
       </c>
     </row>
     <row r="89" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P89" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q89" s="46"/>
+      <c r="P89" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q89" s="55"/>
       <c r="R89" s="30">
         <f>R87-R88</f>
-        <v>591457.44999999995</v>
+        <v>562057.44999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Receipt_For_ArunachalaImpexPvtLtd_Updated.xlsx
+++ b/Receipt_For_ArunachalaImpexPvtLtd_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fisglobal-my.sharepoint.com/personal/hemalatha_jayabalan_fisglobal_com/Documents/e3024537_Backup/D_Drive/Hema's/SVT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e3024537\OneDrive - FIS\e3024537_Backup\D_Drive\Hema's\SVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{EC1AB926-A16F-45FF-9F5D-420AA9D915AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EEF68B-ABB3-441E-B986-A15B1257F283}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A263F-E5C1-4A1C-A605-80E40C722860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="249">
   <si>
     <t>SL</t>
   </si>
@@ -785,7 +785,10 @@
     <t>TN02AT8689</t>
   </si>
   <si>
-    <t>Rupees Five Lakhs Thirty Five Thousand Nine Hundred Ninety Two Only</t>
+    <t>3:00AM</t>
+  </si>
+  <si>
+    <t>Rupees Five Lakhs Fourteen Thousand Nine Hundred Ninety Two Only</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1166,6 +1169,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1208,9 +1214,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1228,6 +1231,9 @@
     </xf>
     <xf numFmtId="18" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1573,66 +1579,66 @@
   <sheetData>
     <row r="1" spans="2:17" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
     </row>
     <row r="3" spans="2:17" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="46" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="48"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="2:17" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="48"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -3710,20 +3716,20 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="52" t="s">
+      <c r="G47" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="55"/>
       <c r="M47" s="4"/>
       <c r="N47" s="19"/>
-      <c r="O47" s="42" t="s">
+      <c r="O47" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="42"/>
+      <c r="P47" s="43"/>
       <c r="Q47" s="31">
         <f>SUM(Q6:Q46)</f>
         <v>189777</v>
@@ -3777,7 +3783,7 @@
   <dimension ref="B1:T89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -3804,69 +3810,69 @@
   <sheetData>
     <row r="1" spans="2:18" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="2:18" ht="34" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="46" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="48"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="49"/>
     </row>
     <row r="4" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="48"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="49"/>
     </row>
     <row r="5" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
@@ -4472,112 +4478,112 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="16" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33">
+    <row r="16" spans="2:18" s="66" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="57">
         <v>11</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="58">
         <v>45314</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="58">
         <v>45314</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="60">
         <v>160</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="56" t="s">
+      <c r="L16" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="63">
         <f>300*35</f>
         <v>10500</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="64">
         <v>1600</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="60">
         <v>200</v>
       </c>
-      <c r="R16" s="40">
+      <c r="R16" s="65">
         <f t="shared" si="0"/>
         <v>12300</v>
       </c>
     </row>
-    <row r="17" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33">
+    <row r="17" spans="2:18" s="66" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="57">
         <v>12</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="58">
         <v>45314</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="58">
         <v>45314</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="60">
         <v>172</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="56" t="s">
+      <c r="L17" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="O17" s="56">
+      <c r="O17" s="63">
         <f>300*35</f>
         <v>10500</v>
       </c>
-      <c r="P17" s="39">
+      <c r="P17" s="64">
         <v>1600</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="60">
         <v>200</v>
       </c>
-      <c r="R17" s="40">
+      <c r="R17" s="65">
         <f t="shared" si="0"/>
         <v>12300</v>
       </c>
@@ -5132,57 +5138,57 @@
         <v>10094</v>
       </c>
     </row>
-    <row r="28" spans="2:18" s="65" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="57">
+    <row r="28" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20">
         <v>23</v>
       </c>
-      <c r="C28" s="58">
+      <c r="C28" s="25">
         <v>45314</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="25">
         <v>45315</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="9">
         <v>167</v>
       </c>
-      <c r="J28" s="61" t="s">
+      <c r="J28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="M28" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="N28" s="63" t="s">
+      <c r="L28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="O28" s="63">
+      <c r="O28" s="14">
         <f>500*18</f>
         <v>9000</v>
       </c>
-      <c r="P28" s="63">
+      <c r="P28" s="14">
         <v>1000</v>
       </c>
-      <c r="Q28" s="60">
+      <c r="Q28" s="9">
         <v>167</v>
       </c>
-      <c r="R28" s="64">
+      <c r="R28" s="23">
         <f t="shared" si="0"/>
         <v>10167</v>
       </c>
@@ -5847,57 +5853,57 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="41" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="33">
+    <row r="41" spans="2:18" s="66" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="57">
         <v>36</v>
       </c>
-      <c r="C41" s="34">
+      <c r="C41" s="58">
         <v>45314</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="58">
         <v>45314</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="60">
         <v>157</v>
       </c>
-      <c r="J41" s="37" t="s">
+      <c r="J41" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="K41" s="38" t="s">
+      <c r="K41" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="L41" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="M41" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="N41" s="56" t="s">
+      <c r="L41" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="O41" s="56">
+      <c r="O41" s="63">
         <f>250*28</f>
         <v>7000</v>
       </c>
-      <c r="P41" s="39">
+      <c r="P41" s="64">
         <v>1600</v>
       </c>
-      <c r="Q41" s="36">
+      <c r="Q41" s="60">
         <v>94</v>
       </c>
-      <c r="R41" s="40">
+      <c r="R41" s="65">
         <f t="shared" si="0"/>
         <v>8694</v>
       </c>
@@ -6122,59 +6128,59 @@
         <v>8705</v>
       </c>
     </row>
-    <row r="46" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="20">
+    <row r="46" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="33">
         <v>41</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="34">
         <v>45314</v>
       </c>
-      <c r="D46" s="25">
+      <c r="D46" s="34">
         <v>45315</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" s="9">
+      <c r="H46" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I46" s="36">
         <v>170</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="K46" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M46" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N46" s="27" t="s">
+      <c r="K46" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="O46" s="27">
-        <f>600*35</f>
-        <v>21000</v>
-      </c>
-      <c r="P46" s="14">
+      <c r="O46" s="42">
+        <f>300*35</f>
+        <v>10500</v>
+      </c>
+      <c r="P46" s="39">
         <v>1600</v>
       </c>
-      <c r="Q46" s="9">
+      <c r="Q46" s="36">
         <v>200</v>
       </c>
-      <c r="R46" s="23">
-        <f t="shared" si="0"/>
-        <v>22800</v>
+      <c r="R46" s="40">
+        <f t="shared" si="0"/>
+        <v>12300</v>
       </c>
     </row>
     <row r="47" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -6232,59 +6238,59 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="20">
+    <row r="48" spans="2:18" s="41" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="33">
         <v>43</v>
       </c>
-      <c r="C48" s="25">
+      <c r="C48" s="34">
         <v>45314</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="34">
         <v>45315</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="24" t="s">
+      <c r="F48" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" s="9">
+      <c r="H48" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" s="36">
         <v>168</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K48" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L48" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="N48" s="27" t="s">
+      <c r="K48" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="L48" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N48" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="O48" s="27">
-        <f>600*35</f>
-        <v>21000</v>
-      </c>
-      <c r="P48" s="14">
+      <c r="O48" s="42">
+        <f>300*35</f>
+        <v>10500</v>
+      </c>
+      <c r="P48" s="39">
         <v>1600</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q48" s="36">
         <v>200</v>
       </c>
-      <c r="R48" s="23">
-        <f t="shared" si="0"/>
-        <v>22800</v>
+      <c r="R48" s="40">
+        <f t="shared" si="0"/>
+        <v>12300</v>
       </c>
     </row>
     <row r="49" spans="2:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
@@ -7873,23 +7879,23 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
-      <c r="H79" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="I79" s="53"/>
-      <c r="J79" s="53"/>
-      <c r="K79" s="53"/>
-      <c r="L79" s="54"/>
+      <c r="H79" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="54"/>
+      <c r="L79" s="55"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="42" t="s">
+      <c r="P79" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="Q79" s="42"/>
+      <c r="Q79" s="43"/>
       <c r="R79" s="31">
         <f>SUM(R6:R78)</f>
-        <v>535992</v>
+        <v>514992</v>
       </c>
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
@@ -7918,72 +7924,72 @@
       <c r="D81" s="13"/>
     </row>
     <row r="83" spans="3:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P83" s="55" t="s">
+      <c r="P83" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="Q83" s="55"/>
+      <c r="Q83" s="56"/>
       <c r="R83" s="30">
         <v>189777</v>
       </c>
     </row>
     <row r="84" spans="3:18" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P84" s="55" t="s">
+      <c r="P84" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="Q84" s="55"/>
+      <c r="Q84" s="56"/>
       <c r="R84" s="19">
         <f>R79</f>
-        <v>535992</v>
+        <v>514992</v>
       </c>
     </row>
     <row r="85" spans="3:18" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P85" s="55" t="s">
+      <c r="P85" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="Q85" s="55"/>
+      <c r="Q85" s="56"/>
       <c r="R85" s="30">
         <f>R83+R84</f>
-        <v>725769</v>
+        <v>704769</v>
       </c>
     </row>
     <row r="86" spans="3:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P86" s="55" t="s">
+      <c r="P86" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="Q86" s="55"/>
+      <c r="Q86" s="56"/>
       <c r="R86" s="30">
         <f>R85*5%</f>
-        <v>36288.450000000004</v>
+        <v>35238.450000000004</v>
       </c>
     </row>
     <row r="87" spans="3:18" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P87" s="55" t="s">
+      <c r="P87" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="Q87" s="55"/>
+      <c r="Q87" s="56"/>
       <c r="R87" s="30">
         <f>R85+R86</f>
-        <v>762057.45</v>
+        <v>740007.45</v>
       </c>
     </row>
     <row r="88" spans="3:18" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L88" s="32"/>
-      <c r="P88" s="55" t="s">
+      <c r="P88" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="Q88" s="55"/>
+      <c r="Q88" s="56"/>
       <c r="R88" s="30">
         <v>200000</v>
       </c>
     </row>
     <row r="89" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P89" s="55" t="s">
+      <c r="P89" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="Q89" s="55"/>
+      <c r="Q89" s="56"/>
       <c r="R89" s="30">
         <f>R87-R88</f>
-        <v>562057.44999999995</v>
+        <v>540007.44999999995</v>
       </c>
     </row>
   </sheetData>
